--- a/input files/L03A/LP_Content_L03A_AllPages_220618.xlsx
+++ b/input files/L03A/LP_Content_L03A_AllPages_220618.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\other\htmlGenerator\sample files\L03A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L03A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2536,9 +2536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/input files/L03A/LP_Content_L03A_AllPages_220618.xlsx
+++ b/input files/L03A/LP_Content_L03A_AllPages_220618.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L03A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ramesh\Swaraj\Projects\ThomasCook\landingPageApps\HTML-Generator\input files\L03A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="0" shapeId="0">
+    <comment ref="B88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="256">
   <si>
     <t>S. No.</t>
   </si>
@@ -1540,26 +1540,6 @@
       </rPr>
       <t xml:space="preserve"> 1 Hotel Deal.</t>
     </r>
-  </si>
-  <si>
-    <t>Home;
-Holidays;
-City Breaks;</t>
-  </si>
-  <si>
-    <t>Home,
-Holidays,
-City Breaks,</t>
-  </si>
-  <si>
-    <t>https://www.thomascook.com/;
-https://www.thomascook.com/holidays/;
-https://www.thomascook.com/holidays/city-breaks/</t>
-  </si>
-  <si>
-    <t>https://www.thomascook.com/;
-https://www.thomascook.com/holidays/;
-https://www.thomascook.com/holidays/city-breaks/;</t>
   </si>
   <si>
     <t>Paris Family Hotels</t>
@@ -1812,11 +1792,23 @@
   <si>
     <t>city=NewYork</t>
   </si>
+  <si>
+    <t>https://www.thomascook.com/;
+https://www.thomascook.com/holidays/</t>
+  </si>
+  <si>
+    <t>Home;
+Holidays;
+City Breaks</t>
+  </si>
+  <si>
+    <t>See All Deals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2254,9 +2246,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2533,12 +2525,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>13</v>
@@ -2623,7 +2615,7 @@
         <v>49</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>51</v>
@@ -2632,7 +2624,7 @@
         <v>54</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="S1" s="35" t="s">
         <v>57</v>
@@ -2641,7 +2633,7 @@
         <v>58</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V1" s="13" t="s">
         <v>52</v>
@@ -2686,13 +2678,13 @@
         <v>105</v>
       </c>
       <c r="AJ1" s="44" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AK1" s="44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AL1" s="44" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="409.5" x14ac:dyDescent="0.25">
@@ -2722,7 +2714,7 @@
         <v>110</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>198</v>
@@ -2731,31 +2723,31 @@
         <v>139</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>216</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="34" t="s">
         <v>217</v>
       </c>
       <c r="R2" s="45" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="S2" s="38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>218</v>
       </c>
       <c r="U2" s="45" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>199</v>
@@ -2773,7 +2765,7 @@
         <v>139</v>
       </c>
       <c r="AA2" s="42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AB2" s="22"/>
       <c r="AC2" s="22"/>
@@ -2782,19 +2774,19 @@
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
       <c r="AH2" s="38" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AI2" s="40" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="AK2" s="16" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="409.5" x14ac:dyDescent="0.25">
@@ -2830,31 +2822,31 @@
         <v>204</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>222</v>
       </c>
       <c r="O3" s="45" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q3" s="34" t="s">
         <v>223</v>
       </c>
       <c r="R3" s="45" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>224</v>
       </c>
       <c r="U3" s="45" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>199</v>
@@ -2872,7 +2864,7 @@
         <v>204</v>
       </c>
       <c r="AA3" s="43" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
@@ -2881,19 +2873,19 @@
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
       <c r="AH3" s="39" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="AI3" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>199</v>
+        <v>253</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="AK3" s="16" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="AL3" s="16" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="409.5" x14ac:dyDescent="0.25">
@@ -2929,31 +2921,31 @@
         <v>214</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>221</v>
       </c>
       <c r="O4" s="45" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="34" t="s">
         <v>219</v>
       </c>
       <c r="R4" s="45" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>220</v>
       </c>
       <c r="U4" s="45" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>199</v>
@@ -2971,7 +2963,7 @@
         <v>210</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
@@ -2980,19 +2972,19 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="39" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="AI4" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>199</v>
+        <v>253</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="AK4" s="16" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -4508,16 +4500,16 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="I3" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7"/>
-    <hyperlink ref="H4" r:id="rId8"/>
-    <hyperlink ref="I4" r:id="rId9"/>
-    <hyperlink ref="J2" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId11"/>
@@ -4526,7 +4518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/input files/L03A/LP_Content_L03A_AllPages_220618.xlsx
+++ b/input files/L03A/LP_Content_L03A_AllPages_220618.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ramesh\Swaraj\Projects\ThomasCook\landingPageApps\HTML-Generator\input files\L03A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L03A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="257">
   <si>
     <t>S. No.</t>
   </si>
@@ -1540,6 +1540,26 @@
       </rPr>
       <t xml:space="preserve"> 1 Hotel Deal.</t>
     </r>
+  </si>
+  <si>
+    <t>Home;
+Holidays;
+City Breaks;</t>
+  </si>
+  <si>
+    <t>Home,
+Holidays,
+City Breaks,</t>
+  </si>
+  <si>
+    <t>https://www.thomascook.com/;
+https://www.thomascook.com/holidays/;
+https://www.thomascook.com/holidays/city-breaks/</t>
+  </si>
+  <si>
+    <t>https://www.thomascook.com/;
+https://www.thomascook.com/holidays/;
+https://www.thomascook.com/holidays/city-breaks/;</t>
   </si>
   <si>
     <t>Paris Family Hotels</t>
@@ -1792,23 +1812,11 @@
   <si>
     <t>city=NewYork</t>
   </si>
-  <si>
-    <t>https://www.thomascook.com/;
-https://www.thomascook.com/holidays/</t>
-  </si>
-  <si>
-    <t>Home;
-Holidays;
-City Breaks</t>
-  </si>
-  <si>
-    <t>See All Deals</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2246,9 +2254,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2525,12 +2533,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2596,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>13</v>
@@ -2615,7 +2623,7 @@
         <v>49</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>51</v>
@@ -2624,7 +2632,7 @@
         <v>54</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="S1" s="35" t="s">
         <v>57</v>
@@ -2633,7 +2641,7 @@
         <v>58</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="V1" s="13" t="s">
         <v>52</v>
@@ -2678,13 +2686,13 @@
         <v>105</v>
       </c>
       <c r="AJ1" s="44" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AK1" s="44" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AL1" s="44" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="409.5" x14ac:dyDescent="0.25">
@@ -2714,7 +2722,7 @@
         <v>110</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>198</v>
@@ -2723,31 +2731,31 @@
         <v>139</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>216</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="34" t="s">
         <v>217</v>
       </c>
       <c r="R2" s="45" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="S2" s="38" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>218</v>
       </c>
       <c r="U2" s="45" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>199</v>
@@ -2765,7 +2773,7 @@
         <v>139</v>
       </c>
       <c r="AA2" s="42" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AB2" s="22"/>
       <c r="AC2" s="22"/>
@@ -2774,19 +2782,19 @@
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
       <c r="AH2" s="38" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="AI2" s="40" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="AK2" s="16" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="409.5" x14ac:dyDescent="0.25">
@@ -2822,31 +2830,31 @@
         <v>204</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>222</v>
       </c>
       <c r="O3" s="45" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q3" s="34" t="s">
         <v>223</v>
       </c>
       <c r="R3" s="45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>224</v>
       </c>
       <c r="U3" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>199</v>
@@ -2864,7 +2872,7 @@
         <v>204</v>
       </c>
       <c r="AA3" s="43" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
@@ -2873,19 +2881,19 @@
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
       <c r="AH3" s="39" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="AI3" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>255</v>
+        <v>227</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="AK3" s="16" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="AL3" s="16" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="409.5" x14ac:dyDescent="0.25">
@@ -2921,31 +2929,31 @@
         <v>214</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>221</v>
       </c>
       <c r="O4" s="45" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="34" t="s">
         <v>219</v>
       </c>
       <c r="R4" s="45" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>220</v>
       </c>
       <c r="U4" s="45" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>199</v>
@@ -2963,7 +2971,7 @@
         <v>210</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
@@ -2972,19 +2980,19 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="39" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="AI4" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ4" s="16" t="s">
-        <v>255</v>
+        <v>227</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="AK4" s="16" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -4500,16 +4508,16 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="I3" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="I4" r:id="rId9"/>
+    <hyperlink ref="J2" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId11"/>
@@ -4518,7 +4526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
